--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4546" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1920,10 +1932,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1967,28 +1979,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2013,28 +2025,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2093,10 +2105,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2140,28 +2152,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2186,28 +2198,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2324,10 +2336,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2371,28 +2383,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2417,28 +2429,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2497,10 +2509,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2544,28 +2556,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2590,28 +2602,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2670,10 +2682,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2717,28 +2729,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2763,28 +2775,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2843,10 +2855,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2890,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2936,28 +2948,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3016,10 +3028,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3063,28 +3075,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3109,28 +3121,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3276,10 +3288,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3323,28 +3335,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3369,28 +3381,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3635,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3728,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3854,10 +3866,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3901,28 +3913,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3947,28 +3959,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4039,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4086,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4132,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4200,10 +4212,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4247,28 +4259,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4293,28 +4305,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4373,10 +4385,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4420,28 +4432,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4466,28 +4478,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4546,10 +4558,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4593,28 +4605,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4639,28 +4651,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4719,10 +4731,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4766,28 +4778,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4812,28 +4824,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4950,10 +4962,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -4997,28 +5009,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5043,28 +5055,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5123,10 +5135,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5170,28 +5182,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5216,28 +5228,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5296,10 +5308,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5343,28 +5355,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5389,28 +5401,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5469,10 +5481,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5516,28 +5528,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5562,28 +5574,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5642,10 +5654,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5689,28 +5701,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5735,28 +5747,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5815,10 +5827,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5862,28 +5874,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5908,28 +5920,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6017,10 +6029,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6064,28 +6076,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6110,28 +6122,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6219,10 +6231,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6266,28 +6278,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6312,28 +6324,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6392,10 +6404,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6439,28 +6451,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6485,28 +6497,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6565,10 +6577,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6612,28 +6624,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6658,28 +6670,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6738,10 +6750,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6785,28 +6797,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6831,28 +6843,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6911,10 +6923,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6958,28 +6970,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7004,28 +7016,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7084,10 +7096,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7131,28 +7143,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7177,28 +7189,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7257,10 +7269,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7304,28 +7316,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7350,28 +7362,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7459,10 +7471,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7506,28 +7518,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7552,28 +7564,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7632,10 +7644,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7679,28 +7691,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7725,28 +7737,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7805,10 +7817,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7852,28 +7864,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7898,28 +7910,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8007,10 +8019,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8054,28 +8066,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8100,28 +8112,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8180,10 +8192,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8227,28 +8239,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8273,28 +8285,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8556,10 +8568,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8603,28 +8615,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8649,28 +8661,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8729,10 +8741,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8776,28 +8788,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8822,28 +8834,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8902,10 +8914,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8949,28 +8961,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8995,28 +9007,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9075,10 +9087,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9122,28 +9134,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9168,28 +9180,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9277,10 +9289,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9324,28 +9336,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9370,28 +9382,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9450,10 +9462,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9497,28 +9509,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9543,28 +9555,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9739,10 +9751,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9786,28 +9798,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9832,28 +9844,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9912,10 +9924,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9959,28 +9971,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10005,28 +10017,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10201,10 +10213,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10248,28 +10260,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10294,28 +10306,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10403,10 +10415,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
